--- a/Project_Template.xlsx
+++ b/Project_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\past9\OneDrive\952 starage\Documents\DASHBOARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBA0D07-304D-4229-8D2F-1016E47EFBAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2510FAD3-E11F-44D1-80F1-5914AD174559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
